--- a/Datasets/MercadoHipotecas.xlsx
+++ b/Datasets/MercadoHipotecas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71FD72A-D78C-0749-BA7D-AFFBAC4E0017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F666B8B-2B16-704D-9A94-ADC27335C1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28740" windowHeight="17200" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
@@ -889,7 +889,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -939,6 +939,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -966,23 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1300,106 +1299,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ED5D3C-25DF-4F0F-9FB8-A45A3A829417}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1414,7 +1411,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1423,51 +1420,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B2">
@@ -1511,7 +1508,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="23" t="s">
         <v>77</v>
       </c>
       <c r="B3">
@@ -1555,7 +1552,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="23" t="s">
         <v>78</v>
       </c>
       <c r="B4">
@@ -1599,7 +1596,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="23" t="s">
         <v>79</v>
       </c>
       <c r="B5">
@@ -1643,7 +1640,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>80</v>
       </c>
       <c r="B6">
@@ -1687,7 +1684,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="23" t="s">
         <v>81</v>
       </c>
       <c r="B7">
@@ -1731,7 +1728,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="23" t="s">
         <v>82</v>
       </c>
       <c r="B8">
@@ -1775,7 +1772,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="23" t="s">
         <v>83</v>
       </c>
       <c r="B9">
@@ -1819,7 +1816,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="23" t="s">
         <v>84</v>
       </c>
       <c r="B10">
@@ -1863,7 +1860,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B11">
@@ -1907,7 +1904,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B12">
@@ -1951,7 +1948,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B13">
@@ -1995,7 +1992,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="23" t="s">
         <v>88</v>
       </c>
       <c r="B14">
@@ -2039,7 +2036,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="23" t="s">
         <v>89</v>
       </c>
       <c r="B15">
@@ -2083,7 +2080,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B16">
@@ -2127,7 +2124,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B17">
@@ -2171,7 +2168,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="23" t="s">
         <v>92</v>
       </c>
       <c r="B18">
@@ -2215,7 +2212,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="23" t="s">
         <v>93</v>
       </c>
       <c r="B19">
@@ -2259,7 +2256,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B20">
@@ -2312,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D32F39-0DA6-4B55-AD6E-BFC4DE865BB0}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2380,28 +2377,28 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="67.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="29" t="s">
         <v>107</v>
       </c>
       <c r="I3" s="22" t="s">
@@ -2409,26 +2406,26 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29" t="s">
         <v>105</v>
       </c>
       <c r="I4" s="22" t="s">
@@ -2436,26 +2433,26 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
         <v>56</v>
       </c>
       <c r="I5" s="22" t="s">
@@ -2463,26 +2460,26 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>108</v>
       </c>
       <c r="I6" s="22" t="s">
@@ -2490,28 +2487,28 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="29" t="s">
         <v>110</v>
       </c>
       <c r="I7" s="22" t="s">
@@ -2519,28 +2516,28 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="29" t="s">
         <v>111</v>
       </c>
       <c r="I8" s="22" t="s">
@@ -2548,28 +2545,28 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="29" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="22" t="s">
@@ -2577,28 +2574,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="29" t="s">
         <v>123</v>
       </c>
       <c r="I10" s="22" t="s">
@@ -2606,28 +2603,28 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="29" t="s">
         <v>125</v>
       </c>
       <c r="I11" s="22" t="s">
@@ -2635,28 +2632,28 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="111.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="29" t="s">
         <v>129</v>
       </c>
       <c r="I12" s="22" t="s">
@@ -2664,28 +2661,28 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="29" t="s">
         <v>99</v>
       </c>
       <c r="I13" s="22" t="s">
@@ -2693,28 +2690,28 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="88.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="29" t="s">
         <v>134</v>
       </c>
       <c r="I14" s="22" t="s">
@@ -2722,28 +2719,28 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="29" t="s">
         <v>139</v>
       </c>
       <c r="I15" s="22" t="s">

--- a/Datasets/MercadoHipotecas.xlsx
+++ b/Datasets/MercadoHipotecas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F666B8B-2B16-704D-9A94-ADC27335C1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC1F2BA-9DCB-8347-87C6-7563C00E975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28740" windowHeight="17200" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
@@ -900,9 +900,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,27 +912,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,6 +958,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1302,101 +1302,101 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1420,51 +1420,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B2">
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B3">
@@ -1552,7 +1552,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B4">
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B5">
@@ -1640,7 +1640,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B6">
@@ -1684,7 +1684,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B7">
@@ -1728,7 +1728,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B8">
@@ -1772,7 +1772,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B9">
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B10">
@@ -1860,7 +1860,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B11">
@@ -1904,7 +1904,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B12">
@@ -1948,7 +1948,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B13">
@@ -1992,7 +1992,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B14">
@@ -2036,7 +2036,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B15">
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B16">
@@ -2124,7 +2124,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B17">
@@ -2168,7 +2168,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B18">
@@ -2212,7 +2212,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B19">
@@ -2256,7 +2256,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B20">
@@ -2315,16 +2315,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="48" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="6"/>
-    <col min="6" max="6" width="30.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="6"/>
-    <col min="8" max="8" width="33.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="48.5" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="18.5" style="6"/>
+    <col min="1" max="1" width="37.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="5"/>
+    <col min="6" max="6" width="30.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="5"/>
+    <col min="8" max="8" width="33.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="48.5" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="18.5" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2357,393 +2357,393 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="67.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="111.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="88.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2773,374 +2773,374 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140220C2-D072-4C73-A23A-56941A369515}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="6"/>
-    <col min="3" max="16384" width="17.5" style="4"/>
+    <col min="1" max="1" width="31" style="28" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="38"/>
+    <col min="3" max="16384" width="17.5" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="27" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="20">
-        <v>1</v>
+      <c r="B43" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="20">
-        <v>1</v>
+      <c r="B44" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="38">
         <v>1</v>
       </c>
     </row>

--- a/Datasets/MercadoHipotecas.xlsx
+++ b/Datasets/MercadoHipotecas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC1F2BA-9DCB-8347-87C6-7563C00E975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405AE1E4-A8AA-9B44-9FBF-53C8C37A4A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28740" windowHeight="17200" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="154">
   <si>
     <t>CCAA</t>
   </si>
@@ -569,12 +569,112 @@
   <si>
     <t>30168 Estadística de Transmisiones de Derechos de la Propiedad</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Técnica de estudio :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Análisis PCA. Conocer que variables independientes son de interés para estudiar el mercado inmobiliario y ver qué comunidades autónomas son las más parecidas y las más diferentes en términos de variables hipotecarias y sociodemográficas.:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Análisis exploratorio con matriz de correlaciones..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Escalar/centrar los datos antes de aplicar pca y decidir si hacerlo con matriz de correlaciones o covarianzas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.Seleccionar un determinado número de componentes y ver como influyen las variables en estas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.Interpretar componentes y resultados.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +738,11 @@
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
   <fills count="10">
@@ -889,7 +994,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -931,6 +1036,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -958,30 +1084,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1299,98 +1428,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ED5D3C-25DF-4F0F-9FB8-A45A3A829417}">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1398,9 +1527,92 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G11"/>
+    <mergeCell ref="B13:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2544,7 +2756,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>70</v>
       </c>
@@ -2779,368 +2991,368 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" style="28" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="38"/>
-    <col min="3" max="16384" width="17.5" style="28"/>
+    <col min="1" max="1" width="31" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="5"/>
+    <col min="3" max="16384" width="17.5" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="38">
+      <c r="B42" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="38">
+      <c r="B43" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="5">
         <v>1</v>
       </c>
     </row>
